--- a/RoMEBS allowed values.xlsx
+++ b/RoMEBS allowed values.xlsx
@@ -16850,9 +16850,6 @@
     <t>Annex I, other codes</t>
   </si>
   <si>
-    <t>10-800 for GC73; 5 to 35 for BEAMT and TBB</t>
-  </si>
-  <si>
     <t>TM</t>
   </si>
   <si>
@@ -17235,6 +17232,28 @@
         <scheme val="minor"/>
       </rPr>
       <t>, ND</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0-800 for GOC73 and TRAWL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; 5 to 35 for BEAMT and TBB</t>
     </r>
   </si>
 </sst>
@@ -17970,7 +17989,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>5714</v>
+        <v>5713</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17987,7 +18006,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>5715</v>
+        <v>5714</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18004,7 +18023,7 @@
         <v>13</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>5716</v>
+        <v>5715</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -18171,7 +18190,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>50</v>
       </c>
@@ -18185,7 +18204,7 @@
         <v>52</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>5603</v>
+        <v>5716</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -59306,7 +59325,7 @@
         <v>193</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>5604</v>
+        <v>5603</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -59400,8 +59419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59653,13 +59672,13 @@
         <v>205</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>5605</v>
+        <v>5604</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>221</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>5605</v>
+        <v>5604</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -59755,13 +59774,13 @@
         <v>218</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>5608</v>
+        <v>5607</v>
       </c>
       <c r="D21" s="23" t="s">
         <v>226</v>
       </c>
       <c r="E21" s="44" t="s">
-        <v>5607</v>
+        <v>5606</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -59772,13 +59791,13 @@
         <v>1</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>5609</v>
+        <v>5608</v>
       </c>
       <c r="D22" s="23" t="s">
         <v>227</v>
       </c>
       <c r="E22" s="44" t="s">
-        <v>5606</v>
+        <v>5605</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -74503,10 +74522,10 @@
         <v>211</v>
       </c>
       <c r="D1" t="s">
+        <v>5609</v>
+      </c>
+      <c r="E1" t="s">
         <v>5610</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5611</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -74990,7 +75009,7 @@
         <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>5612</v>
+        <v>5611</v>
       </c>
       <c r="C30" t="s">
         <v>250</v>
@@ -75007,7 +75026,7 @@
         <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>5612</v>
+        <v>5611</v>
       </c>
       <c r="C31" t="s">
         <v>5591</v>
@@ -75024,7 +75043,7 @@
         <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>5612</v>
+        <v>5611</v>
       </c>
       <c r="C32" t="s">
         <v>5586</v>
@@ -75041,7 +75060,7 @@
         <v>18</v>
       </c>
       <c r="B33" t="s">
-        <v>5612</v>
+        <v>5611</v>
       </c>
       <c r="C33" t="s">
         <v>5592</v>
@@ -75058,7 +75077,7 @@
         <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>5613</v>
+        <v>5612</v>
       </c>
       <c r="C34" t="s">
         <v>250</v>
@@ -75075,7 +75094,7 @@
         <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>5613</v>
+        <v>5612</v>
       </c>
       <c r="C35" t="s">
         <v>5591</v>
@@ -75092,7 +75111,7 @@
         <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>5613</v>
+        <v>5612</v>
       </c>
       <c r="C36" t="s">
         <v>5586</v>
@@ -75109,7 +75128,7 @@
         <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>5613</v>
+        <v>5612</v>
       </c>
       <c r="C37" t="s">
         <v>5592</v>
@@ -75126,7 +75145,7 @@
         <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>5613</v>
+        <v>5612</v>
       </c>
       <c r="C38" t="s">
         <v>250</v>
@@ -75143,7 +75162,7 @@
         <v>18</v>
       </c>
       <c r="B39" t="s">
-        <v>5613</v>
+        <v>5612</v>
       </c>
       <c r="C39" t="s">
         <v>5591</v>
@@ -75160,7 +75179,7 @@
         <v>18</v>
       </c>
       <c r="B40" t="s">
-        <v>5613</v>
+        <v>5612</v>
       </c>
       <c r="C40" t="s">
         <v>5586</v>
@@ -75177,7 +75196,7 @@
         <v>18</v>
       </c>
       <c r="B41" t="s">
-        <v>5613</v>
+        <v>5612</v>
       </c>
       <c r="C41" t="s">
         <v>5592</v>
@@ -75330,7 +75349,7 @@
         <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>5614</v>
+        <v>5613</v>
       </c>
       <c r="C50" t="s">
         <v>250</v>
@@ -75347,7 +75366,7 @@
         <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>5614</v>
+        <v>5613</v>
       </c>
       <c r="C51" t="s">
         <v>5591</v>
@@ -75364,7 +75383,7 @@
         <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>5614</v>
+        <v>5613</v>
       </c>
       <c r="C52" t="s">
         <v>5586</v>
@@ -75381,7 +75400,7 @@
         <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>5614</v>
+        <v>5613</v>
       </c>
       <c r="C53" t="s">
         <v>5592</v>
@@ -75398,7 +75417,7 @@
         <v>18</v>
       </c>
       <c r="B54" t="s">
-        <v>5614</v>
+        <v>5613</v>
       </c>
       <c r="C54" t="s">
         <v>250</v>
@@ -75415,7 +75434,7 @@
         <v>18</v>
       </c>
       <c r="B55" t="s">
-        <v>5614</v>
+        <v>5613</v>
       </c>
       <c r="C55" t="s">
         <v>5591</v>
@@ -75432,7 +75451,7 @@
         <v>18</v>
       </c>
       <c r="B56" t="s">
-        <v>5614</v>
+        <v>5613</v>
       </c>
       <c r="C56" t="s">
         <v>5586</v>
@@ -75449,7 +75468,7 @@
         <v>18</v>
       </c>
       <c r="B57" t="s">
-        <v>5614</v>
+        <v>5613</v>
       </c>
       <c r="C57" t="s">
         <v>5592</v>
@@ -79342,7 +79361,7 @@
         <v>18</v>
       </c>
       <c r="B286" t="s">
-        <v>5615</v>
+        <v>5614</v>
       </c>
       <c r="C286" t="s">
         <v>250</v>
@@ -79359,7 +79378,7 @@
         <v>18</v>
       </c>
       <c r="B287" t="s">
-        <v>5615</v>
+        <v>5614</v>
       </c>
       <c r="C287" t="s">
         <v>5591</v>
@@ -79376,7 +79395,7 @@
         <v>18</v>
       </c>
       <c r="B288" t="s">
-        <v>5615</v>
+        <v>5614</v>
       </c>
       <c r="C288" t="s">
         <v>5586</v>
@@ -79393,7 +79412,7 @@
         <v>18</v>
       </c>
       <c r="B289" t="s">
-        <v>5615</v>
+        <v>5614</v>
       </c>
       <c r="C289" t="s">
         <v>5592</v>
@@ -79410,7 +79429,7 @@
         <v>10</v>
       </c>
       <c r="B290" t="s">
-        <v>5615</v>
+        <v>5614</v>
       </c>
       <c r="C290" t="s">
         <v>250</v>
@@ -79427,7 +79446,7 @@
         <v>10</v>
       </c>
       <c r="B291" t="s">
-        <v>5615</v>
+        <v>5614</v>
       </c>
       <c r="C291" t="s">
         <v>5591</v>
@@ -79444,7 +79463,7 @@
         <v>10</v>
       </c>
       <c r="B292" t="s">
-        <v>5615</v>
+        <v>5614</v>
       </c>
       <c r="C292" t="s">
         <v>5586</v>
@@ -79461,7 +79480,7 @@
         <v>10</v>
       </c>
       <c r="B293" t="s">
-        <v>5615</v>
+        <v>5614</v>
       </c>
       <c r="C293" t="s">
         <v>5592</v>
@@ -79478,7 +79497,7 @@
         <v>10</v>
       </c>
       <c r="B294" t="s">
-        <v>5616</v>
+        <v>5615</v>
       </c>
       <c r="C294" t="s">
         <v>250</v>
@@ -79495,7 +79514,7 @@
         <v>10</v>
       </c>
       <c r="B295" t="s">
-        <v>5616</v>
+        <v>5615</v>
       </c>
       <c r="C295" t="s">
         <v>5591</v>
@@ -79512,7 +79531,7 @@
         <v>10</v>
       </c>
       <c r="B296" t="s">
-        <v>5616</v>
+        <v>5615</v>
       </c>
       <c r="C296" t="s">
         <v>5586</v>
@@ -79529,7 +79548,7 @@
         <v>10</v>
       </c>
       <c r="B297" t="s">
-        <v>5616</v>
+        <v>5615</v>
       </c>
       <c r="C297" t="s">
         <v>5592</v>
@@ -79546,7 +79565,7 @@
         <v>18</v>
       </c>
       <c r="B298" t="s">
-        <v>5616</v>
+        <v>5615</v>
       </c>
       <c r="C298" t="s">
         <v>250</v>
@@ -79563,7 +79582,7 @@
         <v>18</v>
       </c>
       <c r="B299" t="s">
-        <v>5616</v>
+        <v>5615</v>
       </c>
       <c r="C299" t="s">
         <v>5591</v>
@@ -79580,7 +79599,7 @@
         <v>18</v>
       </c>
       <c r="B300" t="s">
-        <v>5616</v>
+        <v>5615</v>
       </c>
       <c r="C300" t="s">
         <v>5586</v>
@@ -79597,7 +79616,7 @@
         <v>18</v>
       </c>
       <c r="B301" t="s">
-        <v>5616</v>
+        <v>5615</v>
       </c>
       <c r="C301" t="s">
         <v>5592</v>
@@ -80974,7 +80993,7 @@
         <v>10</v>
       </c>
       <c r="B382" t="s">
-        <v>5617</v>
+        <v>5616</v>
       </c>
       <c r="C382" t="s">
         <v>250</v>
@@ -80991,7 +81010,7 @@
         <v>10</v>
       </c>
       <c r="B383" t="s">
-        <v>5617</v>
+        <v>5616</v>
       </c>
       <c r="C383" t="s">
         <v>5591</v>
@@ -81008,7 +81027,7 @@
         <v>10</v>
       </c>
       <c r="B384" t="s">
-        <v>5617</v>
+        <v>5616</v>
       </c>
       <c r="C384" t="s">
         <v>5586</v>
@@ -81025,7 +81044,7 @@
         <v>10</v>
       </c>
       <c r="B385" t="s">
-        <v>5617</v>
+        <v>5616</v>
       </c>
       <c r="C385" t="s">
         <v>5592</v>
@@ -81042,7 +81061,7 @@
         <v>18</v>
       </c>
       <c r="B386" t="s">
-        <v>5617</v>
+        <v>5616</v>
       </c>
       <c r="C386" t="s">
         <v>250</v>
@@ -81059,7 +81078,7 @@
         <v>18</v>
       </c>
       <c r="B387" t="s">
-        <v>5617</v>
+        <v>5616</v>
       </c>
       <c r="C387" t="s">
         <v>5591</v>
@@ -81076,7 +81095,7 @@
         <v>18</v>
       </c>
       <c r="B388" t="s">
-        <v>5617</v>
+        <v>5616</v>
       </c>
       <c r="C388" t="s">
         <v>5586</v>
@@ -81093,7 +81112,7 @@
         <v>18</v>
       </c>
       <c r="B389" t="s">
-        <v>5617</v>
+        <v>5616</v>
       </c>
       <c r="C389" t="s">
         <v>5592</v>
@@ -81246,7 +81265,7 @@
         <v>10</v>
       </c>
       <c r="B398" t="s">
-        <v>5618</v>
+        <v>5617</v>
       </c>
       <c r="C398" t="s">
         <v>250</v>
@@ -81263,7 +81282,7 @@
         <v>10</v>
       </c>
       <c r="B399" t="s">
-        <v>5618</v>
+        <v>5617</v>
       </c>
       <c r="C399" t="s">
         <v>5591</v>
@@ -81280,7 +81299,7 @@
         <v>10</v>
       </c>
       <c r="B400" t="s">
-        <v>5618</v>
+        <v>5617</v>
       </c>
       <c r="C400" t="s">
         <v>5586</v>
@@ -81297,7 +81316,7 @@
         <v>10</v>
       </c>
       <c r="B401" t="s">
-        <v>5618</v>
+        <v>5617</v>
       </c>
       <c r="C401" t="s">
         <v>5592</v>
@@ -81586,7 +81605,7 @@
         <v>18</v>
       </c>
       <c r="B418" t="s">
-        <v>5619</v>
+        <v>5618</v>
       </c>
       <c r="C418" t="s">
         <v>250</v>
@@ -81603,7 +81622,7 @@
         <v>18</v>
       </c>
       <c r="B419" t="s">
-        <v>5619</v>
+        <v>5618</v>
       </c>
       <c r="C419" t="s">
         <v>5591</v>
@@ -81620,7 +81639,7 @@
         <v>18</v>
       </c>
       <c r="B420" t="s">
-        <v>5619</v>
+        <v>5618</v>
       </c>
       <c r="C420" t="s">
         <v>5586</v>
@@ -81637,7 +81656,7 @@
         <v>18</v>
       </c>
       <c r="B421" t="s">
-        <v>5619</v>
+        <v>5618</v>
       </c>
       <c r="C421" t="s">
         <v>5592</v>
@@ -81654,7 +81673,7 @@
         <v>10</v>
       </c>
       <c r="B422" t="s">
-        <v>5619</v>
+        <v>5618</v>
       </c>
       <c r="C422" t="s">
         <v>250</v>
@@ -81671,7 +81690,7 @@
         <v>10</v>
       </c>
       <c r="B423" t="s">
-        <v>5619</v>
+        <v>5618</v>
       </c>
       <c r="C423" t="s">
         <v>5591</v>
@@ -81688,7 +81707,7 @@
         <v>10</v>
       </c>
       <c r="B424" t="s">
-        <v>5619</v>
+        <v>5618</v>
       </c>
       <c r="C424" t="s">
         <v>5586</v>
@@ -81705,7 +81724,7 @@
         <v>10</v>
       </c>
       <c r="B425" t="s">
-        <v>5619</v>
+        <v>5618</v>
       </c>
       <c r="C425" t="s">
         <v>5592</v>
@@ -84285,40 +84304,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5620</v>
+        <v>5619</v>
       </c>
       <c r="B1" t="s">
         <v>211</v>
       </c>
       <c r="C1" t="s">
+        <v>5620</v>
+      </c>
+      <c r="D1" t="s">
         <v>5621</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5622</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5623</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5624</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5625</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5626</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5627</v>
       </c>
       <c r="J1" t="s">
         <v>241</v>
       </c>
       <c r="K1" t="s">
+        <v>5627</v>
+      </c>
+      <c r="L1" t="s">
         <v>5628</v>
-      </c>
-      <c r="L1" t="s">
-        <v>5629</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -84347,7 +84366,7 @@
         <v>249</v>
       </c>
       <c r="J2" t="s">
-        <v>5630</v>
+        <v>5629</v>
       </c>
       <c r="K2">
         <v>5</v>
@@ -84382,7 +84401,7 @@
         <v>249</v>
       </c>
       <c r="J3" t="s">
-        <v>5630</v>
+        <v>5629</v>
       </c>
       <c r="K3">
         <v>5</v>
@@ -84417,7 +84436,7 @@
         <v>249</v>
       </c>
       <c r="J4" t="s">
-        <v>5631</v>
+        <v>5630</v>
       </c>
       <c r="K4">
         <v>5</v>
@@ -84452,7 +84471,7 @@
         <v>249</v>
       </c>
       <c r="J5" t="s">
-        <v>5631</v>
+        <v>5630</v>
       </c>
       <c r="K5">
         <v>5</v>
@@ -84484,10 +84503,10 @@
         <v>249</v>
       </c>
       <c r="I6" t="s">
+        <v>5631</v>
+      </c>
+      <c r="J6" t="s">
         <v>5632</v>
-      </c>
-      <c r="J6" t="s">
-        <v>5633</v>
       </c>
       <c r="K6">
         <v>10</v>
@@ -84522,7 +84541,7 @@
         <v>249</v>
       </c>
       <c r="J7" t="s">
-        <v>5631</v>
+        <v>5630</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -84554,10 +84573,10 @@
         <v>249</v>
       </c>
       <c r="I8" t="s">
+        <v>5633</v>
+      </c>
+      <c r="J8" t="s">
         <v>5634</v>
-      </c>
-      <c r="J8" t="s">
-        <v>5635</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -84589,10 +84608,10 @@
         <v>249</v>
       </c>
       <c r="I9" t="s">
+        <v>5635</v>
+      </c>
+      <c r="J9" t="s">
         <v>5636</v>
-      </c>
-      <c r="J9" t="s">
-        <v>5637</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -84624,10 +84643,10 @@
         <v>249</v>
       </c>
       <c r="I10" t="s">
+        <v>5637</v>
+      </c>
+      <c r="J10" t="s">
         <v>5638</v>
-      </c>
-      <c r="J10" t="s">
-        <v>5639</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -84659,10 +84678,10 @@
         <v>249</v>
       </c>
       <c r="I11" t="s">
+        <v>5639</v>
+      </c>
+      <c r="J11" t="s">
         <v>5640</v>
-      </c>
-      <c r="J11" t="s">
-        <v>5641</v>
       </c>
       <c r="K11">
         <v>4</v>
@@ -84694,10 +84713,10 @@
         <v>249</v>
       </c>
       <c r="I12" t="s">
+        <v>5639</v>
+      </c>
+      <c r="J12" t="s">
         <v>5640</v>
-      </c>
-      <c r="J12" t="s">
-        <v>5641</v>
       </c>
       <c r="K12">
         <v>4</v>
@@ -84729,10 +84748,10 @@
         <v>249</v>
       </c>
       <c r="I13" t="s">
+        <v>5641</v>
+      </c>
+      <c r="J13" t="s">
         <v>5642</v>
-      </c>
-      <c r="J13" t="s">
-        <v>5643</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -84767,7 +84786,7 @@
         <v>249</v>
       </c>
       <c r="J14" t="s">
-        <v>5644</v>
+        <v>5643</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -84799,10 +84818,10 @@
         <v>249</v>
       </c>
       <c r="I15" t="s">
+        <v>5644</v>
+      </c>
+      <c r="J15" t="s">
         <v>5645</v>
-      </c>
-      <c r="J15" t="s">
-        <v>5646</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -84834,7 +84853,7 @@
         <v>249</v>
       </c>
       <c r="I16" t="s">
-        <v>5647</v>
+        <v>5646</v>
       </c>
       <c r="J16" t="s">
         <v>249</v>
@@ -84869,7 +84888,7 @@
         <v>249</v>
       </c>
       <c r="I17" t="s">
-        <v>5647</v>
+        <v>5646</v>
       </c>
       <c r="J17" t="s">
         <v>249</v>
@@ -84907,7 +84926,7 @@
         <v>249</v>
       </c>
       <c r="J18" t="s">
-        <v>5648</v>
+        <v>5647</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -84939,10 +84958,10 @@
         <v>249</v>
       </c>
       <c r="I19" t="s">
+        <v>5648</v>
+      </c>
+      <c r="J19" t="s">
         <v>5649</v>
-      </c>
-      <c r="J19" t="s">
-        <v>5650</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -84974,10 +84993,10 @@
         <v>249</v>
       </c>
       <c r="I20" t="s">
+        <v>5650</v>
+      </c>
+      <c r="J20" t="s">
         <v>5651</v>
-      </c>
-      <c r="J20" t="s">
-        <v>5652</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -85009,10 +85028,10 @@
         <v>249</v>
       </c>
       <c r="I21" t="s">
+        <v>5652</v>
+      </c>
+      <c r="J21" t="s">
         <v>5653</v>
-      </c>
-      <c r="J21" t="s">
-        <v>5654</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -85044,10 +85063,10 @@
         <v>249</v>
       </c>
       <c r="I22" t="s">
+        <v>5654</v>
+      </c>
+      <c r="J22" t="s">
         <v>5655</v>
-      </c>
-      <c r="J22" t="s">
-        <v>5656</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -85079,10 +85098,10 @@
         <v>249</v>
       </c>
       <c r="I23" t="s">
+        <v>5656</v>
+      </c>
+      <c r="J23" t="s">
         <v>5657</v>
-      </c>
-      <c r="J23" t="s">
-        <v>5658</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -85114,10 +85133,10 @@
         <v>249</v>
       </c>
       <c r="I24" t="s">
+        <v>5656</v>
+      </c>
+      <c r="J24" t="s">
         <v>5657</v>
-      </c>
-      <c r="J24" t="s">
-        <v>5658</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -85149,10 +85168,10 @@
         <v>249</v>
       </c>
       <c r="I25" t="s">
+        <v>5658</v>
+      </c>
+      <c r="J25" t="s">
         <v>5659</v>
-      </c>
-      <c r="J25" t="s">
-        <v>5660</v>
       </c>
       <c r="K25">
         <v>11</v>
@@ -85184,10 +85203,10 @@
         <v>249</v>
       </c>
       <c r="I26" t="s">
+        <v>5660</v>
+      </c>
+      <c r="J26" t="s">
         <v>5661</v>
-      </c>
-      <c r="J26" t="s">
-        <v>5662</v>
       </c>
       <c r="K26">
         <v>11</v>
@@ -85222,7 +85241,7 @@
         <v>249</v>
       </c>
       <c r="J27" t="s">
-        <v>5663</v>
+        <v>5662</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -85257,7 +85276,7 @@
         <v>249</v>
       </c>
       <c r="J28" t="s">
-        <v>5664</v>
+        <v>5663</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -85289,10 +85308,10 @@
         <v>249</v>
       </c>
       <c r="I29" t="s">
+        <v>5664</v>
+      </c>
+      <c r="J29" t="s">
         <v>5665</v>
-      </c>
-      <c r="J29" t="s">
-        <v>5666</v>
       </c>
       <c r="K29">
         <v>11</v>
@@ -85327,7 +85346,7 @@
         <v>249</v>
       </c>
       <c r="J30" t="s">
-        <v>5667</v>
+        <v>5666</v>
       </c>
       <c r="K30">
         <v>4</v>
@@ -85362,7 +85381,7 @@
         <v>249</v>
       </c>
       <c r="J31" t="s">
-        <v>5668</v>
+        <v>5667</v>
       </c>
       <c r="K31">
         <v>5</v>
@@ -85397,7 +85416,7 @@
         <v>249</v>
       </c>
       <c r="J32" t="s">
-        <v>5669</v>
+        <v>5668</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -85432,7 +85451,7 @@
         <v>249</v>
       </c>
       <c r="J33" t="s">
-        <v>5670</v>
+        <v>5669</v>
       </c>
       <c r="K33">
         <v>12</v>
@@ -85464,10 +85483,10 @@
         <v>249</v>
       </c>
       <c r="I34" t="s">
+        <v>5670</v>
+      </c>
+      <c r="J34" t="s">
         <v>5671</v>
-      </c>
-      <c r="J34" t="s">
-        <v>5672</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -85499,10 +85518,10 @@
         <v>249</v>
       </c>
       <c r="I35" t="s">
+        <v>5672</v>
+      </c>
+      <c r="J35" t="s">
         <v>5673</v>
-      </c>
-      <c r="J35" t="s">
-        <v>5674</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -85537,7 +85556,7 @@
         <v>249</v>
       </c>
       <c r="J36" t="s">
-        <v>5675</v>
+        <v>5674</v>
       </c>
       <c r="K36">
         <v>4</v>
@@ -85569,10 +85588,10 @@
         <v>249</v>
       </c>
       <c r="I37" t="s">
+        <v>5675</v>
+      </c>
+      <c r="J37" t="s">
         <v>5676</v>
-      </c>
-      <c r="J37" t="s">
-        <v>5677</v>
       </c>
       <c r="K37">
         <v>4</v>
@@ -85604,13 +85623,13 @@
         <v>30</v>
       </c>
       <c r="H38" t="s">
+        <v>5677</v>
+      </c>
+      <c r="I38" t="s">
         <v>5678</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>5679</v>
-      </c>
-      <c r="J38" t="s">
-        <v>5680</v>
       </c>
       <c r="K38">
         <v>3</v>
@@ -85642,13 +85661,13 @@
         <v>30</v>
       </c>
       <c r="H39" t="s">
+        <v>5677</v>
+      </c>
+      <c r="I39" t="s">
         <v>5678</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>5679</v>
-      </c>
-      <c r="J39" t="s">
-        <v>5680</v>
       </c>
       <c r="K39">
         <v>3</v>
@@ -85680,7 +85699,7 @@
         <v>32</v>
       </c>
       <c r="H40" t="s">
-        <v>5678</v>
+        <v>5677</v>
       </c>
       <c r="I40" t="s">
         <v>249</v>
@@ -85718,7 +85737,7 @@
         <v>32</v>
       </c>
       <c r="H41" t="s">
-        <v>5678</v>
+        <v>5677</v>
       </c>
       <c r="I41" t="s">
         <v>249</v>
@@ -85756,13 +85775,13 @@
         <v>18</v>
       </c>
       <c r="H42" t="s">
+        <v>5680</v>
+      </c>
+      <c r="I42" t="s">
         <v>5681</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>5682</v>
-      </c>
-      <c r="J42" t="s">
-        <v>5683</v>
       </c>
       <c r="K42">
         <v>3</v>
@@ -85797,7 +85816,7 @@
         <v>249</v>
       </c>
       <c r="J43" t="s">
-        <v>5630</v>
+        <v>5629</v>
       </c>
       <c r="K43">
         <v>3</v>
@@ -85832,7 +85851,7 @@
         <v>249</v>
       </c>
       <c r="J44" t="s">
-        <v>5631</v>
+        <v>5630</v>
       </c>
       <c r="K44">
         <v>3</v>
@@ -85864,10 +85883,10 @@
         <v>249</v>
       </c>
       <c r="I45" t="s">
-        <v>5684</v>
+        <v>5683</v>
       </c>
       <c r="J45" t="s">
-        <v>5643</v>
+        <v>5642</v>
       </c>
       <c r="K45">
         <v>6</v>
@@ -85899,10 +85918,10 @@
         <v>249</v>
       </c>
       <c r="I46" t="s">
+        <v>5684</v>
+      </c>
+      <c r="J46" t="s">
         <v>5685</v>
-      </c>
-      <c r="J46" t="s">
-        <v>5686</v>
       </c>
       <c r="K46">
         <v>5</v>
@@ -85934,10 +85953,10 @@
         <v>249</v>
       </c>
       <c r="I47" t="s">
+        <v>5684</v>
+      </c>
+      <c r="J47" t="s">
         <v>5685</v>
-      </c>
-      <c r="J47" t="s">
-        <v>5686</v>
       </c>
       <c r="K47">
         <v>5</v>
@@ -85972,7 +85991,7 @@
         <v>249</v>
       </c>
       <c r="J48" t="s">
-        <v>5687</v>
+        <v>5686</v>
       </c>
       <c r="K48">
         <v>9</v>
@@ -86004,10 +86023,10 @@
         <v>249</v>
       </c>
       <c r="I49" t="s">
+        <v>5687</v>
+      </c>
+      <c r="J49" t="s">
         <v>5688</v>
-      </c>
-      <c r="J49" t="s">
-        <v>5689</v>
       </c>
       <c r="K49">
         <v>10</v>
@@ -86039,10 +86058,10 @@
         <v>249</v>
       </c>
       <c r="I50" t="s">
+        <v>5689</v>
+      </c>
+      <c r="J50" t="s">
         <v>5690</v>
-      </c>
-      <c r="J50" t="s">
-        <v>5691</v>
       </c>
       <c r="K50">
         <v>10</v>
@@ -86074,10 +86093,10 @@
         <v>249</v>
       </c>
       <c r="I51" t="s">
+        <v>5691</v>
+      </c>
+      <c r="J51" t="s">
         <v>5692</v>
-      </c>
-      <c r="J51" t="s">
-        <v>5693</v>
       </c>
       <c r="K51">
         <v>4</v>
@@ -86109,10 +86128,10 @@
         <v>249</v>
       </c>
       <c r="I52" t="s">
+        <v>5691</v>
+      </c>
+      <c r="J52" t="s">
         <v>5692</v>
-      </c>
-      <c r="J52" t="s">
-        <v>5693</v>
       </c>
       <c r="K52">
         <v>4</v>
@@ -86144,10 +86163,10 @@
         <v>249</v>
       </c>
       <c r="I53" t="s">
-        <v>5694</v>
+        <v>5693</v>
       </c>
       <c r="J53" t="s">
-        <v>5643</v>
+        <v>5642</v>
       </c>
       <c r="K53">
         <v>11</v>
@@ -86179,13 +86198,13 @@
         <v>18</v>
       </c>
       <c r="H54" t="s">
-        <v>5681</v>
+        <v>5680</v>
       </c>
       <c r="I54" t="s">
+        <v>5694</v>
+      </c>
+      <c r="J54" t="s">
         <v>5695</v>
-      </c>
-      <c r="J54" t="s">
-        <v>5696</v>
       </c>
       <c r="K54">
         <v>3</v>
@@ -86217,13 +86236,13 @@
         <v>17.899999999999999</v>
       </c>
       <c r="H55" t="s">
-        <v>5681</v>
+        <v>5680</v>
       </c>
       <c r="I55" t="s">
+        <v>5696</v>
+      </c>
+      <c r="J55" t="s">
         <v>5697</v>
-      </c>
-      <c r="J55" t="s">
-        <v>5698</v>
       </c>
       <c r="K55">
         <v>10</v>
@@ -86255,10 +86274,10 @@
         <v>249</v>
       </c>
       <c r="I56" t="s">
+        <v>5698</v>
+      </c>
+      <c r="J56" t="s">
         <v>5699</v>
-      </c>
-      <c r="J56" t="s">
-        <v>5700</v>
       </c>
       <c r="K56">
         <v>7</v>
@@ -86290,10 +86309,10 @@
         <v>249</v>
       </c>
       <c r="I57" t="s">
+        <v>5698</v>
+      </c>
+      <c r="J57" t="s">
         <v>5699</v>
-      </c>
-      <c r="J57" t="s">
-        <v>5700</v>
       </c>
       <c r="K57">
         <v>7</v>
@@ -86304,7 +86323,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>5617</v>
+        <v>5616</v>
       </c>
       <c r="B58" t="s">
         <v>252</v>
@@ -86325,7 +86344,7 @@
         <v>249</v>
       </c>
       <c r="I58" t="s">
-        <v>5701</v>
+        <v>5700</v>
       </c>
       <c r="J58" t="s">
         <v>249</v>
@@ -86360,10 +86379,10 @@
         <v>249</v>
       </c>
       <c r="I59" t="s">
+        <v>5701</v>
+      </c>
+      <c r="J59" t="s">
         <v>5702</v>
-      </c>
-      <c r="J59" t="s">
-        <v>5703</v>
       </c>
       <c r="K59">
         <v>5</v>
@@ -86395,10 +86414,10 @@
         <v>249</v>
       </c>
       <c r="I60" t="s">
+        <v>5703</v>
+      </c>
+      <c r="J60" t="s">
         <v>5704</v>
-      </c>
-      <c r="J60" t="s">
-        <v>5705</v>
       </c>
       <c r="K60">
         <v>1</v>
@@ -86409,7 +86428,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>5619</v>
+        <v>5618</v>
       </c>
       <c r="B61" t="s">
         <v>250</v>
@@ -86430,10 +86449,10 @@
         <v>249</v>
       </c>
       <c r="I61" t="s">
+        <v>5705</v>
+      </c>
+      <c r="J61" t="s">
         <v>5706</v>
-      </c>
-      <c r="J61" t="s">
-        <v>5707</v>
       </c>
       <c r="K61">
         <v>12</v>
@@ -86444,7 +86463,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>5619</v>
+        <v>5618</v>
       </c>
       <c r="B62" t="s">
         <v>5591</v>
@@ -86465,10 +86484,10 @@
         <v>249</v>
       </c>
       <c r="I62" t="s">
+        <v>5705</v>
+      </c>
+      <c r="J62" t="s">
         <v>5706</v>
-      </c>
-      <c r="J62" t="s">
-        <v>5707</v>
       </c>
       <c r="K62">
         <v>10</v>
@@ -86500,10 +86519,10 @@
         <v>249</v>
       </c>
       <c r="I63" t="s">
+        <v>5707</v>
+      </c>
+      <c r="J63" t="s">
         <v>5708</v>
-      </c>
-      <c r="J63" t="s">
-        <v>5709</v>
       </c>
       <c r="K63">
         <v>10</v>
@@ -86535,10 +86554,10 @@
         <v>249</v>
       </c>
       <c r="I64" t="s">
+        <v>5709</v>
+      </c>
+      <c r="J64" t="s">
         <v>5710</v>
-      </c>
-      <c r="J64" t="s">
-        <v>5711</v>
       </c>
       <c r="K64">
         <v>12</v>
@@ -86570,10 +86589,10 @@
         <v>249</v>
       </c>
       <c r="I65" t="s">
+        <v>5711</v>
+      </c>
+      <c r="J65" t="s">
         <v>5712</v>
-      </c>
-      <c r="J65" t="s">
-        <v>5713</v>
       </c>
       <c r="K65">
         <v>3</v>

--- a/RoMEBS allowed values.xlsx
+++ b/RoMEBS allowed values.xlsx
@@ -17878,7 +17878,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
